--- a/Estimativas.xlsx
+++ b/Estimativas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unifgvendramini\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTEVJU\Documents\GitHub\Engenharia-de-software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B358752-6F1E-44F4-A09B-452FCD519B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EAB7721-38E2-406B-AE3A-A64AAE83AB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FAAF56B8-8B79-42CB-8EAC-C06B82504EC2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAAF56B8-8B79-42CB-8EAC-C06B82504EC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Tipo de interação</t>
   </si>
@@ -51,39 +73,15 @@
     <t>Total PNAs</t>
   </si>
   <si>
-    <t>Cadastro/Login</t>
-  </si>
-  <si>
-    <t>Cadastrar agenda</t>
-  </si>
-  <si>
-    <t>Agendar consulta</t>
-  </si>
-  <si>
-    <t>Realizar Pagamento</t>
-  </si>
-  <si>
     <t>Caso de uso</t>
   </si>
   <si>
     <t>Solicitar Medicamento</t>
   </si>
   <si>
-    <t>Conferir Estoque</t>
-  </si>
-  <si>
     <t>Realizar o Pagamaneto</t>
   </si>
   <si>
-    <t>Apresentar carteirinha</t>
-  </si>
-  <si>
-    <t>Conferir Histórico</t>
-  </si>
-  <si>
-    <t>Visualizar Histórico</t>
-  </si>
-  <si>
     <t>PNA</t>
   </si>
   <si>
@@ -120,13 +118,16 @@
     <t>Custo</t>
   </si>
   <si>
-    <t>Agendamento Consulta</t>
-  </si>
-  <si>
-    <t>Medicamento</t>
-  </si>
-  <si>
-    <t>Histórico de Vacinação</t>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Separar Medicamentos listados na receita</t>
+  </si>
+  <si>
+    <t>Cadastro</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -134,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -245,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -257,30 +258,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -296,46 +287,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEF7A838-5F34-42CC-9CEB-4F1DD9B1D837}" name="Tabela1" displayName="Tabela1" ref="A2:F6" totalsRowShown="0">
-  <autoFilter ref="A2:F6" xr:uid="{AEF7A838-5F34-42CC-9CEB-4F1DD9B1D837}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{CC7B749F-A1EE-462F-B1B8-DA667702B4DB}" name="Caso de uso"/>
-    <tableColumn id="2" xr3:uid="{172C850E-6797-4E06-9FB8-9D916E732C4D}" name="Tipo de interação"/>
-    <tableColumn id="3" xr3:uid="{6AB35817-076D-4009-8A57-9715A3237FEF}" name="Regras de negócio"/>
-    <tableColumn id="4" xr3:uid="{C6A29F43-1B37-46CB-BC5C-FC7F4D37404A}" name="Entidades"/>
-    <tableColumn id="5" xr3:uid="{4E427288-85C4-41A8-8565-EA27C3345208}" name="Tipos de manipulação"/>
-    <tableColumn id="6" xr3:uid="{B0C1F09B-F478-41F8-A7CC-A98DFB1D952F}" name="Total PNAs" dataDxfId="3">
-      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Tipo de interação]],Tabela1[[#This Row],[Regras de negócio]],Tabela1[[#This Row],[Entidades]],Tabela1[[#This Row],[Tipos de manipulação]])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAC3137A-36E8-48C3-B84E-AB260FE54162}" name="Tabela2" displayName="Tabela2" ref="A22:E23" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAC3137A-36E8-48C3-B84E-AB260FE54162}" name="Tabela2" displayName="Tabela2" ref="A10:E11" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E4292F48-DC78-42A0-95B0-1F62794F8B8C}" name="Coeficiente"/>
     <tableColumn id="2" xr3:uid="{7B10183F-591E-484B-B74A-6DDC0E4F820F}" name="PNA">
-      <calculatedColumnFormula>SUM(F3,F4,F5,F6,F10,F11,F12,F16,F17,F18)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(F2:F6)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{DF72D4B6-2A90-4B9A-BA93-637F7CE6E7A2}" name="DA"/>
     <tableColumn id="4" xr3:uid="{2D285C99-2766-4DF8-BA09-A4CF39A43445}" name="PA">
-      <calculatedColumnFormula>PRODUCT(B23,1)</calculatedColumnFormula>
+      <calculatedColumnFormula>PRODUCT(B11,1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{23436C7B-C4E9-4BFA-AE64-BD1F374E2B6E}" name="PUC" dataDxfId="2">
-      <calculatedColumnFormula>PRODUCT(D23,C23) / 36</calculatedColumnFormula>
+      <calculatedColumnFormula>PRODUCT(D11,C11) / 36</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{65110D45-D7D1-4A3A-9D50-DC825AE24315}" name="Tabela24" displayName="Tabela24" ref="A26:H27" totalsRowShown="0">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{65110D45-D7D1-4A3A-9D50-DC825AE24315}" name="Tabela24" displayName="Tabela24" ref="A14:H15" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{80249AA6-2F38-4580-AC59-5A663E7DB3EF}" name="Estimativa Horas/Puc"/>
-    <tableColumn id="2" xr3:uid="{BC04E721-12BB-4C7E-BFE0-1B11E1FD9F3E}" name="PUC"/>
+    <tableColumn id="2" xr3:uid="{BC04E721-12BB-4C7E-BFE0-1B11E1FD9F3E}" name="PUC">
+      <calculatedColumnFormula array="1">Tabela2[PUC]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{EE02B037-AF1F-4F2A-AD8D-C3779A63B1FB}" name="Valor Hora"/>
     <tableColumn id="4" xr3:uid="{1A2126FA-575C-4BA9-A599-465E188CD077}" name="Jornada Horas/Dia"/>
     <tableColumn id="5" xr3:uid="{E2F0A2E8-F64C-4886-B393-49FA72B4F69D}" name="Equipe" dataDxfId="1"/>
@@ -343,7 +319,7 @@
       <calculatedColumnFormula>(Tabela24[[#This Row],[Estimativa Horas/Puc]]*Tabela24[[#This Row],[PUC]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{B64CBD90-BE69-4E21-958A-9B2017661CE0}" name="Prazo Dias">
-      <calculatedColumnFormula>ROUND(Tabela24[[#This Row],[Esforço]]/(Tabela24[[#This Row],[Equipe]])/Tabela24[[#This Row],[Jornada Horas/Dia]]+1,0)</calculatedColumnFormula>
+      <calculatedColumnFormula>ROUND(Tabela24[[#This Row],[Esforço]]/(Tabela24[[#This Row],[Equipe]])/Tabela24[[#This Row],[Jornada Horas/Dia]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{5C793D01-16ED-44B0-A5B5-DCCCD3D314B4}" name="Custo" dataDxfId="0">
       <calculatedColumnFormula>Tabela24[[#This Row],[Esforço]]*Tabela24[[#This Row],[Valor Hora]]</calculatedColumnFormula>
@@ -650,71 +626,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07A6194-8D4A-4886-A46B-95AE95DE771C}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5">
+        <f>SUM(B2,C2,D2,E2)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <f>SUM(Tabela1[[#This Row],[Tipo de interação]],Tabela1[[#This Row],[Regras de negócio]],Tabela1[[#This Row],[Entidades]],Tabela1[[#This Row],[Tipos de manipulação]])</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM(B3,C3,D3,E3)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -730,17 +722,17 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <f>SUM(Tabela1[[#This Row],[Tipo de interação]],Tabela1[[#This Row],[Regras de negócio]],Tabela1[[#This Row],[Entidades]],Tabela1[[#This Row],[Tipos de manipulação]])</f>
+      <c r="F4" s="5">
+        <f>SUM(B4,C4,D4,E4)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -749,316 +741,170 @@
         <v>1</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F6" si="0">SUM(B5,C5,D5,E5)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="F5">
-        <f>SUM(Tabela1[[#This Row],[Tipo de interação]],Tabela1[[#This Row],[Regras de negócio]],Tabela1[[#This Row],[Entidades]],Tabela1[[#This Row],[Tipos de manipulação]])</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <f>SUM(Tabela1[[#This Row],[Tipo de interação]],Tabela1[[#This Row],[Regras de negócio]],Tabela1[[#This Row],[Entidades]],Tabela1[[#This Row],[Tipos de manipulação]])</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5">
-        <f>SUM(B10,C10,D10,E10)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" ref="F11:F12" si="0">SUM(B11,C11,D11,E11)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <f>SUM(B16,C16,D16,E16)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ref="B7:D7" si="1">SUM(B2:B6)</f>
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F18" si="1">SUM(B17,C17,D17,E17)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
+      <c r="C7" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <f>SUM(E2:E6)</f>
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <f>SUM(F2:F6)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f>SUM(F2:F6)</f>
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <f>PRODUCT(B11,1)</f>
+        <v>37</v>
+      </c>
+      <c r="E11" s="8">
+        <f>PRODUCT(D11,C11) / 36</f>
+        <v>23.638888888888889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <f>SUM(F3,F4,F5,F6,F10,F11,F12,F16,F17,F18)</f>
-        <v>73</v>
-      </c>
-      <c r="C23">
-        <v>23</v>
-      </c>
-      <c r="D23">
-        <f>PRODUCT(B23,1)</f>
-        <v>73</v>
-      </c>
-      <c r="E23" s="8">
-        <f>PRODUCT(D23,C23) / 36</f>
-        <v>46.638888888888886</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>20</v>
-      </c>
-      <c r="B27">
-        <v>47</v>
-      </c>
-      <c r="C27">
+      <c r="B15" s="8" cm="1">
+        <f t="array" ref="B15">Tabela2[PUC]</f>
+        <v>23.638888888888889</v>
+      </c>
+      <c r="C15">
         <v>70</v>
       </c>
-      <c r="D27">
+      <c r="D15">
         <v>8</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E15" s="8">
         <v>4</v>
       </c>
-      <c r="F27">
+      <c r="F15">
         <f>(Tabela24[[#This Row],[Estimativa Horas/Puc]]*Tabela24[[#This Row],[PUC]])</f>
-        <v>940</v>
-      </c>
-      <c r="G27">
-        <f>ROUND(Tabela24[[#This Row],[Esforço]]/(Tabela24[[#This Row],[Equipe]])/Tabela24[[#This Row],[Jornada Horas/Dia]]+1,0)</f>
-        <v>30</v>
-      </c>
-      <c r="H27" s="9">
+        <v>472.77777777777777</v>
+      </c>
+      <c r="G15">
+        <f>ROUND(Tabela24[[#This Row],[Esforço]]/(Tabela24[[#This Row],[Equipe]])/Tabela24[[#This Row],[Jornada Horas/Dia]],0)</f>
+        <v>15</v>
+      </c>
+      <c r="H15" s="9">
         <f>Tabela24[[#This Row],[Esforço]]*Tabela24[[#This Row],[Valor Hora]]</f>
-        <v>65800</v>
+        <v>33094.444444444445</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{b97ea58d-47e6-47cc-9ab7-39ab03def869}" enabled="1" method="Standard" siteId="{505cca53-5750-4134-9501-8d52d5df3cd1}" removed="0"/>
+</clbl:labelList>
 </file>